--- a/2022/Realme/MARCH/15.03.2022/realme Bank Statement March-2022.xlsx
+++ b/2022/Realme/MARCH/15.03.2022/realme Bank Statement March-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="March-2022" sheetId="7" r:id="rId1"/>
@@ -2660,6 +2660,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2697,12 +2703,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4228,67 +4228,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="275"/>
-      <c r="D1" s="275"/>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="275"/>
-      <c r="K1" s="275"/>
-      <c r="L1" s="275"/>
-      <c r="M1" s="275"/>
-      <c r="N1" s="275"/>
-      <c r="O1" s="275"/>
-      <c r="P1" s="275"/>
-      <c r="Q1" s="275"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="277"/>
+      <c r="I1" s="277"/>
+      <c r="J1" s="277"/>
+      <c r="K1" s="277"/>
+      <c r="L1" s="277"/>
+      <c r="M1" s="277"/>
+      <c r="N1" s="277"/>
+      <c r="O1" s="277"/>
+      <c r="P1" s="277"/>
+      <c r="Q1" s="277"/>
     </row>
     <row r="2" spans="1:24" s="87" customFormat="1" ht="18">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="278" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="278"/>
+      <c r="Q2" s="278"/>
     </row>
     <row r="3" spans="1:24" s="88" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="279" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="279"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="280"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="280"/>
+      <c r="L3" s="280"/>
+      <c r="M3" s="280"/>
+      <c r="N3" s="280"/>
+      <c r="O3" s="280"/>
+      <c r="P3" s="280"/>
+      <c r="Q3" s="281"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4297,10 +4297,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="90" customFormat="1">
-      <c r="A4" s="280" t="s">
+      <c r="A4" s="282" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="284" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="271" t="s">
@@ -4336,13 +4336,13 @@
       <c r="M4" s="271" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="273" t="s">
+      <c r="N4" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="286" t="s">
+      <c r="O4" s="273" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="284" t="s">
+      <c r="P4" s="286" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="89" t="s">
@@ -4355,8 +4355,8 @@
       <c r="W4" s="92"/>
     </row>
     <row r="5" spans="1:24" s="90" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="281"/>
-      <c r="B5" s="283"/>
+      <c r="A5" s="283"/>
+      <c r="B5" s="285"/>
       <c r="C5" s="272"/>
       <c r="D5" s="272"/>
       <c r="E5" s="272"/>
@@ -4368,9 +4368,9 @@
       <c r="K5" s="272"/>
       <c r="L5" s="272"/>
       <c r="M5" s="272"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="287"/>
-      <c r="P5" s="285"/>
+      <c r="N5" s="276"/>
+      <c r="O5" s="274"/>
+      <c r="P5" s="287"/>
       <c r="Q5" s="94" t="s">
         <v>36</v>
       </c>
@@ -7378,12 +7378,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7397,6 +7391,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7408,8 +7408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10077,16 +10077,14 @@
     </row>
     <row r="40" spans="1:61" ht="14.25">
       <c r="A40" s="229" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="229" t="s">
-        <v>51</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B40" s="229"/>
       <c r="C40" s="230">
-        <v>4500</v>
+        <v>46400</v>
       </c>
       <c r="D40" s="232" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="39"/>
@@ -10148,16 +10146,16 @@
     </row>
     <row r="41" spans="1:61" ht="14.25">
       <c r="A41" s="229" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B41" s="229" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C41" s="230">
-        <v>4460</v>
-      </c>
-      <c r="D41" s="233" t="s">
-        <v>57</v>
+        <v>4500</v>
+      </c>
+      <c r="D41" s="232" t="s">
+        <v>97</v>
       </c>
       <c r="E41" s="65"/>
       <c r="F41" s="39"/>
@@ -10219,16 +10217,16 @@
     </row>
     <row r="42" spans="1:61" ht="15" thickBot="1">
       <c r="A42" s="229" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B42" s="229" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C42" s="230">
-        <v>100000</v>
+        <v>840</v>
       </c>
       <c r="D42" s="232" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F42" s="168"/>
       <c r="G42" s="67"/>
@@ -10289,16 +10287,16 @@
     </row>
     <row r="43" spans="1:61" ht="15" thickBot="1">
       <c r="A43" s="229" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="229" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="230">
-        <v>290000</v>
+        <v>4460</v>
       </c>
       <c r="D43" s="233" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="305" t="s">
@@ -10362,14 +10360,16 @@
     </row>
     <row r="44" spans="1:61" ht="14.25">
       <c r="A44" s="229" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="229"/>
+        <v>45</v>
+      </c>
+      <c r="B44" s="229" t="s">
+        <v>46</v>
+      </c>
       <c r="C44" s="230">
-        <v>125820</v>
-      </c>
-      <c r="D44" s="233" t="s">
-        <v>111</v>
+        <v>100000</v>
+      </c>
+      <c r="D44" s="232" t="s">
+        <v>91</v>
       </c>
       <c r="E44" s="47"/>
       <c r="F44" s="236"/>
@@ -10430,14 +10430,16 @@
     </row>
     <row r="45" spans="1:61" ht="14.25">
       <c r="A45" s="229" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="229"/>
+        <v>59</v>
+      </c>
+      <c r="B45" s="229" t="s">
+        <v>46</v>
+      </c>
       <c r="C45" s="230">
-        <v>46400</v>
-      </c>
-      <c r="D45" s="232" t="s">
-        <v>110</v>
+        <v>290000</v>
+      </c>
+      <c r="D45" s="233" t="s">
+        <v>92</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="238"/>
@@ -10498,16 +10500,16 @@
     </row>
     <row r="46" spans="1:61" ht="14.25">
       <c r="A46" s="229" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="229" t="s">
-        <v>74</v>
+        <v>107</v>
+      </c>
+      <c r="B46" s="229">
+        <v>8</v>
       </c>
       <c r="C46" s="230">
-        <v>1500</v>
-      </c>
-      <c r="D46" s="232" t="s">
-        <v>91</v>
+        <v>3270</v>
+      </c>
+      <c r="D46" s="233" t="s">
+        <v>106</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="240"/>
@@ -10567,17 +10569,15 @@
       <c r="BI46" s="141"/>
     </row>
     <row r="47" spans="1:61" ht="14.25">
-      <c r="A47" s="258" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="229" t="s">
-        <v>67</v>
-      </c>
+      <c r="A47" s="229" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="229"/>
       <c r="C47" s="230">
-        <v>31990</v>
-      </c>
-      <c r="D47" s="232" t="s">
-        <v>66</v>
+        <v>125820</v>
+      </c>
+      <c r="D47" s="233" t="s">
+        <v>111</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="240"/>
@@ -10638,16 +10638,14 @@
     </row>
     <row r="48" spans="1:61" ht="14.25">
       <c r="A48" s="229" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="229" t="s">
-        <v>67</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B48" s="229"/>
       <c r="C48" s="230">
-        <v>31990</v>
+        <v>55000</v>
       </c>
       <c r="D48" s="232" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="240"/>
@@ -10778,16 +10776,16 @@
     </row>
     <row r="50" spans="1:61" ht="14.25">
       <c r="A50" s="229" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="229">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="B50" s="229" t="s">
+        <v>74</v>
       </c>
       <c r="C50" s="230">
-        <v>3270</v>
-      </c>
-      <c r="D50" s="233" t="s">
-        <v>106</v>
+        <v>1500</v>
+      </c>
+      <c r="D50" s="232" t="s">
+        <v>91</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="240"/>
@@ -10847,17 +10845,17 @@
       <c r="BI50" s="141"/>
     </row>
     <row r="51" spans="1:61" ht="14.25">
-      <c r="A51" s="229" t="s">
-        <v>108</v>
+      <c r="A51" s="258" t="s">
+        <v>68</v>
       </c>
       <c r="B51" s="229" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C51" s="230">
-        <v>840</v>
+        <v>31990</v>
       </c>
       <c r="D51" s="232" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="240"/>
@@ -10918,14 +10916,16 @@
     </row>
     <row r="52" spans="1:61" ht="14.25">
       <c r="A52" s="229" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="229"/>
+        <v>61</v>
+      </c>
+      <c r="B52" s="229" t="s">
+        <v>67</v>
+      </c>
       <c r="C52" s="230">
-        <v>55000</v>
+        <v>31990</v>
       </c>
       <c r="D52" s="232" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="240"/>
@@ -16545,7 +16545,7 @@
       <c r="J232" s="38"/>
     </row>
   </sheetData>
-  <sortState ref="A37:D49">
+  <sortState ref="A37:D52">
     <sortCondition ref="A37"/>
   </sortState>
   <mergeCells count="10">
@@ -16574,7 +16574,7 @@
   </sheetPr>
   <dimension ref="A1:AC219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
